--- a/natmiOut/OldD2/LR-pairs_lrc2p/Inhbb-Acvr2b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Inhbb-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,25 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Inhbb</t>
   </si>
   <si>
     <t>Acvr2b</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.57088153096832</v>
+        <v>2.8515055</v>
       </c>
       <c r="H2">
-        <v>2.57088153096832</v>
+        <v>5.703011</v>
       </c>
       <c r="I2">
-        <v>0.6493211847375215</v>
+        <v>0.387259194802113</v>
       </c>
       <c r="J2">
-        <v>0.6493211847375215</v>
+        <v>0.3342184077626661</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.87982053014031</v>
+        <v>1.921801</v>
       </c>
       <c r="N2">
-        <v>1.87982053014031</v>
+        <v>3.843602</v>
       </c>
       <c r="O2">
-        <v>0.3139184641402641</v>
+        <v>0.2963026861879742</v>
       </c>
       <c r="P2">
-        <v>0.3139184641402641</v>
+        <v>0.2443427896918877</v>
       </c>
       <c r="Q2">
-        <v>4.832795882472799</v>
+        <v>5.480026121405499</v>
       </c>
       <c r="R2">
-        <v>4.832795882472799</v>
+        <v>21.920104485622</v>
       </c>
       <c r="S2">
-        <v>0.2038339090465395</v>
+        <v>0.114745939670858</v>
       </c>
       <c r="T2">
-        <v>0.2038339090465395</v>
+        <v>0.0816638581191107</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.57088153096832</v>
+        <v>2.8515055</v>
       </c>
       <c r="H3">
-        <v>2.57088153096832</v>
+        <v>5.703011</v>
       </c>
       <c r="I3">
-        <v>0.6493211847375215</v>
+        <v>0.387259194802113</v>
       </c>
       <c r="J3">
-        <v>0.6493211847375215</v>
+        <v>0.3342184077626661</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.140412666828495</v>
+        <v>0.1523196666666667</v>
       </c>
       <c r="N3">
-        <v>0.140412666828495</v>
+        <v>0.456959</v>
       </c>
       <c r="O3">
-        <v>0.02344805156125716</v>
+        <v>0.02348459928608122</v>
       </c>
       <c r="P3">
-        <v>0.02344805156125716</v>
+        <v>0.02904947932559493</v>
       </c>
       <c r="Q3">
-        <v>0.3609843318633858</v>
+        <v>0.4343403672581667</v>
       </c>
       <c r="R3">
-        <v>0.3609843318633858</v>
+        <v>2.606042203549</v>
       </c>
       <c r="S3">
-        <v>0.01522531661954199</v>
+        <v>0.009094627009778089</v>
       </c>
       <c r="T3">
-        <v>0.01522531661954199</v>
+        <v>0.009708870726534827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.57088153096832</v>
+        <v>2.8515055</v>
       </c>
       <c r="H4">
-        <v>2.57088153096832</v>
+        <v>5.703011</v>
       </c>
       <c r="I4">
-        <v>0.6493211847375215</v>
+        <v>0.387259194802113</v>
       </c>
       <c r="J4">
-        <v>0.6493211847375215</v>
+        <v>0.3342184077626661</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.983069956635791</v>
+        <v>0.4109286666666667</v>
       </c>
       <c r="N4">
-        <v>0.983069956635791</v>
+        <v>1.232786</v>
       </c>
       <c r="O4">
-        <v>0.164166635049203</v>
+        <v>0.06335685524410488</v>
       </c>
       <c r="P4">
-        <v>0.164166635049203</v>
+        <v>0.07836981309019599</v>
       </c>
       <c r="Q4">
-        <v>2.527356395164782</v>
+        <v>1.171765353107667</v>
       </c>
       <c r="R4">
-        <v>2.527356395164782</v>
+        <v>7.030592118646</v>
       </c>
       <c r="S4">
-        <v>0.1065968739645208</v>
+        <v>0.02453552474702608</v>
       </c>
       <c r="T4">
-        <v>0.1065968739645208</v>
+        <v>0.02619263414766305</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.57088153096832</v>
+        <v>2.8515055</v>
       </c>
       <c r="H5">
-        <v>2.57088153096832</v>
+        <v>5.703011</v>
       </c>
       <c r="I5">
-        <v>0.6493211847375215</v>
+        <v>0.387259194802113</v>
       </c>
       <c r="J5">
-        <v>0.6493211847375215</v>
+        <v>0.3342184077626661</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.1836409249962</v>
+        <v>0.9978816666666667</v>
       </c>
       <c r="N5">
-        <v>1.1836409249962</v>
+        <v>2.993645</v>
       </c>
       <c r="O5">
-        <v>0.1976607528808269</v>
+        <v>0.1538530879789666</v>
       </c>
       <c r="P5">
-        <v>0.1976607528808269</v>
+        <v>0.1903099151907953</v>
       </c>
       <c r="Q5">
-        <v>3.043000593370989</v>
+        <v>2.845465060849167</v>
       </c>
       <c r="R5">
-        <v>3.043000593370989</v>
+        <v>17.072790365095</v>
       </c>
       <c r="S5">
-        <v>0.128345314236689</v>
+        <v>0.05958102296855325</v>
       </c>
       <c r="T5">
-        <v>0.128345314236689</v>
+        <v>0.06360507683651563</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.57088153096832</v>
+        <v>2.8515055</v>
       </c>
       <c r="H6">
-        <v>2.57088153096832</v>
+        <v>5.703011</v>
       </c>
       <c r="I6">
-        <v>0.6493211847375215</v>
+        <v>0.387259194802113</v>
       </c>
       <c r="J6">
-        <v>0.6493211847375215</v>
+        <v>0.3342184077626661</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.80130046537217</v>
+        <v>1.197361</v>
       </c>
       <c r="N6">
-        <v>1.80130046537217</v>
+        <v>3.592083</v>
       </c>
       <c r="O6">
-        <v>0.3008060963684488</v>
+        <v>0.1846087501446398</v>
       </c>
       <c r="P6">
-        <v>0.3008060963684488</v>
+        <v>0.2283533989796043</v>
       </c>
       <c r="Q6">
-        <v>4.630930098149951</v>
+        <v>3.4142814769855</v>
       </c>
       <c r="R6">
-        <v>4.630930098149951</v>
+        <v>20.485688861913</v>
       </c>
       <c r="S6">
-        <v>0.1953197708702303</v>
+        <v>0.07149143593443767</v>
       </c>
       <c r="T6">
-        <v>0.1953197708702303</v>
+        <v>0.07631990941415619</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.38845568364537</v>
+        <v>2.8515055</v>
       </c>
       <c r="H7">
-        <v>1.38845568364537</v>
+        <v>5.703011</v>
       </c>
       <c r="I7">
-        <v>0.3506788152624784</v>
+        <v>0.387259194802113</v>
       </c>
       <c r="J7">
-        <v>0.3506788152624784</v>
+        <v>0.3342184077626661</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.87982053014031</v>
+        <v>1.8056465</v>
       </c>
       <c r="N7">
-        <v>1.87982053014031</v>
+        <v>3.611293</v>
       </c>
       <c r="O7">
-        <v>0.3139184641402641</v>
+        <v>0.2783940211582333</v>
       </c>
       <c r="P7">
-        <v>0.3139184641402641</v>
+        <v>0.2295746037219218</v>
       </c>
       <c r="Q7">
-        <v>2.610047499306566</v>
+        <v>5.14881092580575</v>
       </c>
       <c r="R7">
-        <v>2.610047499306566</v>
+        <v>20.595243703223</v>
       </c>
       <c r="S7">
-        <v>0.1100845550937246</v>
+        <v>0.1078106444714598</v>
       </c>
       <c r="T7">
-        <v>0.1100845550937246</v>
+        <v>0.07672805851868576</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.38845568364537</v>
+        <v>0.216357</v>
       </c>
       <c r="H8">
-        <v>1.38845568364537</v>
+        <v>0.649071</v>
       </c>
       <c r="I8">
-        <v>0.3506788152624784</v>
+        <v>0.02938315833856913</v>
       </c>
       <c r="J8">
-        <v>0.3506788152624784</v>
+        <v>0.03803806027113072</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.140412666828495</v>
+        <v>1.921801</v>
       </c>
       <c r="N8">
-        <v>0.140412666828495</v>
+        <v>3.843602</v>
       </c>
       <c r="O8">
-        <v>0.02344805156125716</v>
+        <v>0.2963026861879742</v>
       </c>
       <c r="P8">
-        <v>0.02344805156125716</v>
+        <v>0.2443427896918877</v>
       </c>
       <c r="Q8">
-        <v>0.1949567653138276</v>
+        <v>0.415795098957</v>
       </c>
       <c r="R8">
-        <v>0.1949567653138276</v>
+        <v>2.494770593741999</v>
       </c>
       <c r="S8">
-        <v>0.008222734941715168</v>
+        <v>0.008706308744404607</v>
       </c>
       <c r="T8">
-        <v>0.008222734941715168</v>
+        <v>0.009294325761116242</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.38845568364537</v>
+        <v>0.216357</v>
       </c>
       <c r="H9">
-        <v>1.38845568364537</v>
+        <v>0.649071</v>
       </c>
       <c r="I9">
-        <v>0.3506788152624784</v>
+        <v>0.02938315833856913</v>
       </c>
       <c r="J9">
-        <v>0.3506788152624784</v>
+        <v>0.03803806027113072</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.983069956635791</v>
+        <v>0.1523196666666667</v>
       </c>
       <c r="N9">
-        <v>0.983069956635791</v>
+        <v>0.456959</v>
       </c>
       <c r="O9">
-        <v>0.164166635049203</v>
+        <v>0.02348459928608122</v>
       </c>
       <c r="P9">
-        <v>0.164166635049203</v>
+        <v>0.02904947932559493</v>
       </c>
       <c r="Q9">
-        <v>1.364949068711971</v>
+        <v>0.032955426121</v>
       </c>
       <c r="R9">
-        <v>1.364949068711971</v>
+        <v>0.296598835089</v>
       </c>
       <c r="S9">
-        <v>0.05756976108468218</v>
+        <v>0.000690051699340772</v>
       </c>
       <c r="T9">
-        <v>0.05756976108468218</v>
+        <v>0.001104985845431946</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.38845568364537</v>
+        <v>0.216357</v>
       </c>
       <c r="H10">
-        <v>1.38845568364537</v>
+        <v>0.649071</v>
       </c>
       <c r="I10">
-        <v>0.3506788152624784</v>
+        <v>0.02938315833856913</v>
       </c>
       <c r="J10">
-        <v>0.3506788152624784</v>
+        <v>0.03803806027113072</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.1836409249962</v>
+        <v>0.4109286666666667</v>
       </c>
       <c r="N10">
-        <v>1.1836409249962</v>
+        <v>1.232786</v>
       </c>
       <c r="O10">
-        <v>0.1976607528808269</v>
+        <v>0.06335685524410488</v>
       </c>
       <c r="P10">
-        <v>0.1976607528808269</v>
+        <v>0.07836981309019599</v>
       </c>
       <c r="Q10">
-        <v>1.643432969706237</v>
+        <v>0.088907293534</v>
       </c>
       <c r="R10">
-        <v>1.643432969706237</v>
+        <v>0.8001656418059999</v>
       </c>
       <c r="S10">
-        <v>0.06931543864413788</v>
+        <v>0.001861624509471338</v>
       </c>
       <c r="T10">
-        <v>0.06931543864413788</v>
+        <v>0.002981035673762124</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1086,1301 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.216357</v>
+      </c>
+      <c r="H11">
+        <v>0.649071</v>
+      </c>
+      <c r="I11">
+        <v>0.02938315833856913</v>
+      </c>
+      <c r="J11">
+        <v>0.03803806027113072</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.9978816666666667</v>
+      </c>
+      <c r="N11">
+        <v>2.993645</v>
+      </c>
+      <c r="O11">
+        <v>0.1538530879789666</v>
+      </c>
+      <c r="P11">
+        <v>0.1903099151907953</v>
+      </c>
+      <c r="Q11">
+        <v>0.215898683755</v>
+      </c>
+      <c r="R11">
+        <v>1.943088153795</v>
+      </c>
+      <c r="S11">
+        <v>0.004520689644963783</v>
+      </c>
+      <c r="T11">
+        <v>0.007239020024221247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.38845568364537</v>
-      </c>
-      <c r="H11">
-        <v>1.38845568364537</v>
-      </c>
-      <c r="I11">
-        <v>0.3506788152624784</v>
-      </c>
-      <c r="J11">
-        <v>0.3506788152624784</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.80130046537217</v>
-      </c>
-      <c r="N11">
-        <v>1.80130046537217</v>
-      </c>
-      <c r="O11">
-        <v>0.3008060963684488</v>
-      </c>
-      <c r="P11">
-        <v>0.3008060963684488</v>
-      </c>
-      <c r="Q11">
-        <v>2.50102586909904</v>
-      </c>
-      <c r="R11">
-        <v>2.50102586909904</v>
-      </c>
-      <c r="S11">
-        <v>0.1054863254982186</v>
-      </c>
-      <c r="T11">
-        <v>0.1054863254982186</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.216357</v>
+      </c>
+      <c r="H12">
+        <v>0.649071</v>
+      </c>
+      <c r="I12">
+        <v>0.02938315833856913</v>
+      </c>
+      <c r="J12">
+        <v>0.03803806027113072</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.197361</v>
+      </c>
+      <c r="N12">
+        <v>3.592083</v>
+      </c>
+      <c r="O12">
+        <v>0.1846087501446398</v>
+      </c>
+      <c r="P12">
+        <v>0.2283533989796043</v>
+      </c>
+      <c r="Q12">
+        <v>0.259057433877</v>
+      </c>
+      <c r="R12">
+        <v>2.331516904893</v>
+      </c>
+      <c r="S12">
+        <v>0.0054243881361853</v>
+      </c>
+      <c r="T12">
+        <v>0.008686120353503749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.216357</v>
+      </c>
+      <c r="H13">
+        <v>0.649071</v>
+      </c>
+      <c r="I13">
+        <v>0.02938315833856913</v>
+      </c>
+      <c r="J13">
+        <v>0.03803806027113072</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.8056465</v>
+      </c>
+      <c r="N13">
+        <v>3.611293</v>
+      </c>
+      <c r="O13">
+        <v>0.2783940211582333</v>
+      </c>
+      <c r="P13">
+        <v>0.2295746037219218</v>
+      </c>
+      <c r="Q13">
+        <v>0.3906642598005</v>
+      </c>
+      <c r="R13">
+        <v>2.343985558803</v>
+      </c>
+      <c r="S13">
+        <v>0.008180095604203335</v>
+      </c>
+      <c r="T13">
+        <v>0.008732572613095414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05725033333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.171751</v>
+      </c>
+      <c r="I14">
+        <v>0.007775092136002975</v>
+      </c>
+      <c r="J14">
+        <v>0.01006527003922063</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.921801</v>
+      </c>
+      <c r="N14">
+        <v>3.843602</v>
+      </c>
+      <c r="O14">
+        <v>0.2963026861879742</v>
+      </c>
+      <c r="P14">
+        <v>0.2443427896918877</v>
+      </c>
+      <c r="Q14">
+        <v>0.1100237478503333</v>
+      </c>
+      <c r="R14">
+        <v>0.6601424871019999</v>
+      </c>
+      <c r="S14">
+        <v>0.002303780685256675</v>
+      </c>
+      <c r="T14">
+        <v>0.002459376160385344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05725033333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.171751</v>
+      </c>
+      <c r="I15">
+        <v>0.007775092136002975</v>
+      </c>
+      <c r="J15">
+        <v>0.01006527003922063</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.1523196666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.456959</v>
+      </c>
+      <c r="O15">
+        <v>0.02348459928608122</v>
+      </c>
+      <c r="P15">
+        <v>0.02904947932559493</v>
+      </c>
+      <c r="Q15">
+        <v>0.008720351689888887</v>
+      </c>
+      <c r="R15">
+        <v>0.07848316520899999</v>
+      </c>
+      <c r="S15">
+        <v>0.0001825949232263911</v>
+      </c>
+      <c r="T15">
+        <v>0.0002923908539108697</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05725033333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.171751</v>
+      </c>
+      <c r="I16">
+        <v>0.007775092136002975</v>
+      </c>
+      <c r="J16">
+        <v>0.01006527003922063</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.4109286666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.232786</v>
+      </c>
+      <c r="O16">
+        <v>0.06335685524410488</v>
+      </c>
+      <c r="P16">
+        <v>0.07836981309019599</v>
+      </c>
+      <c r="Q16">
+        <v>0.02352580314288889</v>
+      </c>
+      <c r="R16">
+        <v>0.211732228286</v>
+      </c>
+      <c r="S16">
+        <v>0.0004926053869703188</v>
+      </c>
+      <c r="T16">
+        <v>0.0007888133316760703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05725033333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.171751</v>
+      </c>
+      <c r="I17">
+        <v>0.007775092136002975</v>
+      </c>
+      <c r="J17">
+        <v>0.01006527003922063</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.9978816666666667</v>
+      </c>
+      <c r="N17">
+        <v>2.993645</v>
+      </c>
+      <c r="O17">
+        <v>0.1538530879789666</v>
+      </c>
+      <c r="P17">
+        <v>0.1903099151907953</v>
+      </c>
+      <c r="Q17">
+        <v>0.05712905804388888</v>
+      </c>
+      <c r="R17">
+        <v>0.5141615223949999</v>
+      </c>
+      <c r="S17">
+        <v>0.001196221934445037</v>
+      </c>
+      <c r="T17">
+        <v>0.001915520687536531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.05725033333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.171751</v>
+      </c>
+      <c r="I18">
+        <v>0.007775092136002975</v>
+      </c>
+      <c r="J18">
+        <v>0.01006527003922063</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.197361</v>
+      </c>
+      <c r="N18">
+        <v>3.592083</v>
+      </c>
+      <c r="O18">
+        <v>0.1846087501446398</v>
+      </c>
+      <c r="P18">
+        <v>0.2283533989796043</v>
+      </c>
+      <c r="Q18">
+        <v>0.06854931637033332</v>
+      </c>
+      <c r="R18">
+        <v>0.6169438473329999</v>
+      </c>
+      <c r="S18">
+        <v>0.001435350041486927</v>
+      </c>
+      <c r="T18">
+        <v>0.002298438625103605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05725033333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.171751</v>
+      </c>
+      <c r="I19">
+        <v>0.007775092136002975</v>
+      </c>
+      <c r="J19">
+        <v>0.01006527003922063</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.8056465</v>
+      </c>
+      <c r="N19">
+        <v>3.611293</v>
+      </c>
+      <c r="O19">
+        <v>0.2783940211582333</v>
+      </c>
+      <c r="P19">
+        <v>0.2295746037219218</v>
+      </c>
+      <c r="Q19">
+        <v>0.1033738640071667</v>
+      </c>
+      <c r="R19">
+        <v>0.6202431840429999</v>
+      </c>
+      <c r="S19">
+        <v>0.002164539164617626</v>
+      </c>
+      <c r="T19">
+        <v>0.002310730380608209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.063518333333333</v>
+      </c>
+      <c r="H20">
+        <v>6.190555</v>
+      </c>
+      <c r="I20">
+        <v>0.2802436987149647</v>
+      </c>
+      <c r="J20">
+        <v>0.3627903637687551</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.921801</v>
+      </c>
+      <c r="N20">
+        <v>3.843602</v>
+      </c>
+      <c r="O20">
+        <v>0.2963026861879742</v>
+      </c>
+      <c r="P20">
+        <v>0.2443427896918877</v>
+      </c>
+      <c r="Q20">
+        <v>3.965671596518332</v>
+      </c>
+      <c r="R20">
+        <v>23.79402957911</v>
+      </c>
+      <c r="S20">
+        <v>0.08303696071649737</v>
+      </c>
+      <c r="T20">
+        <v>0.08864520955659236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.063518333333333</v>
+      </c>
+      <c r="H21">
+        <v>6.190555</v>
+      </c>
+      <c r="I21">
+        <v>0.2802436987149647</v>
+      </c>
+      <c r="J21">
+        <v>0.3627903637687551</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1523196666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.456959</v>
+      </c>
+      <c r="O21">
+        <v>0.02348459928608122</v>
+      </c>
+      <c r="P21">
+        <v>0.02904947932559493</v>
+      </c>
+      <c r="Q21">
+        <v>0.3143144246938888</v>
+      </c>
+      <c r="R21">
+        <v>2.828829822245</v>
+      </c>
+      <c r="S21">
+        <v>0.006581410966770219</v>
+      </c>
+      <c r="T21">
+        <v>0.01053887117182552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.063518333333333</v>
+      </c>
+      <c r="H22">
+        <v>6.190555</v>
+      </c>
+      <c r="I22">
+        <v>0.2802436987149647</v>
+      </c>
+      <c r="J22">
+        <v>0.3627903637687551</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.4109286666666667</v>
+      </c>
+      <c r="N22">
+        <v>1.232786</v>
+      </c>
+      <c r="O22">
+        <v>0.06335685524410488</v>
+      </c>
+      <c r="P22">
+        <v>0.07836981309019599</v>
+      </c>
+      <c r="Q22">
+        <v>0.8479588373588888</v>
+      </c>
+      <c r="R22">
+        <v>7.631629536229999</v>
+      </c>
+      <c r="S22">
+        <v>0.01775535945255656</v>
+      </c>
+      <c r="T22">
+        <v>0.02843181299948155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.063518333333333</v>
+      </c>
+      <c r="H23">
+        <v>6.190555</v>
+      </c>
+      <c r="I23">
+        <v>0.2802436987149647</v>
+      </c>
+      <c r="J23">
+        <v>0.3627903637687551</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9978816666666667</v>
+      </c>
+      <c r="N23">
+        <v>2.993645</v>
+      </c>
+      <c r="O23">
+        <v>0.1538530879789666</v>
+      </c>
+      <c r="P23">
+        <v>0.1903099151907953</v>
+      </c>
+      <c r="Q23">
+        <v>2.059147113663889</v>
+      </c>
+      <c r="R23">
+        <v>18.532324022975</v>
+      </c>
+      <c r="S23">
+        <v>0.04311635843394447</v>
+      </c>
+      <c r="T23">
+        <v>0.06904260336086956</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.063518333333333</v>
+      </c>
+      <c r="H24">
+        <v>6.190555</v>
+      </c>
+      <c r="I24">
+        <v>0.2802436987149647</v>
+      </c>
+      <c r="J24">
+        <v>0.3627903637687551</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.197361</v>
+      </c>
+      <c r="N24">
+        <v>3.592083</v>
+      </c>
+      <c r="O24">
+        <v>0.1846087501446398</v>
+      </c>
+      <c r="P24">
+        <v>0.2283533989796043</v>
+      </c>
+      <c r="Q24">
+        <v>2.470776375118333</v>
+      </c>
+      <c r="R24">
+        <v>22.236987376065</v>
+      </c>
+      <c r="S24">
+        <v>0.05173543895568063</v>
+      </c>
+      <c r="T24">
+        <v>0.08284441268364232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.063518333333333</v>
+      </c>
+      <c r="H25">
+        <v>6.190555</v>
+      </c>
+      <c r="I25">
+        <v>0.2802436987149647</v>
+      </c>
+      <c r="J25">
+        <v>0.3627903637687551</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.8056465</v>
+      </c>
+      <c r="N25">
+        <v>3.611293</v>
+      </c>
+      <c r="O25">
+        <v>0.2783940211582333</v>
+      </c>
+      <c r="P25">
+        <v>0.2295746037219218</v>
+      </c>
+      <c r="Q25">
+        <v>3.725984656269166</v>
+      </c>
+      <c r="R25">
+        <v>22.355907937615</v>
+      </c>
+      <c r="S25">
+        <v>0.07801817018951544</v>
+      </c>
+      <c r="T25">
+        <v>0.08328745399634382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>2.1746685</v>
+      </c>
+      <c r="H26">
+        <v>4.349337</v>
+      </c>
+      <c r="I26">
+        <v>0.2953388560083502</v>
+      </c>
+      <c r="J26">
+        <v>0.2548878981582275</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.921801</v>
+      </c>
+      <c r="N26">
+        <v>3.843602</v>
+      </c>
+      <c r="O26">
+        <v>0.2963026861879742</v>
+      </c>
+      <c r="P26">
+        <v>0.2443427896918877</v>
+      </c>
+      <c r="Q26">
+        <v>4.1792800979685</v>
+      </c>
+      <c r="R26">
+        <v>16.717120391874</v>
+      </c>
+      <c r="S26">
+        <v>0.0875096963709575</v>
+      </c>
+      <c r="T26">
+        <v>0.06228002009468307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>2.1746685</v>
+      </c>
+      <c r="H27">
+        <v>4.349337</v>
+      </c>
+      <c r="I27">
+        <v>0.2953388560083502</v>
+      </c>
+      <c r="J27">
+        <v>0.2548878981582275</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.1523196666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.456959</v>
+      </c>
+      <c r="O27">
+        <v>0.02348459928608122</v>
+      </c>
+      <c r="P27">
+        <v>0.02904947932559493</v>
+      </c>
+      <c r="Q27">
+        <v>0.3312447810305</v>
+      </c>
+      <c r="R27">
+        <v>1.987468686183</v>
+      </c>
+      <c r="S27">
+        <v>0.006935914686965745</v>
+      </c>
+      <c r="T27">
+        <v>0.007404360727891775</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>2.1746685</v>
+      </c>
+      <c r="H28">
+        <v>4.349337</v>
+      </c>
+      <c r="I28">
+        <v>0.2953388560083502</v>
+      </c>
+      <c r="J28">
+        <v>0.2548878981582275</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.4109286666666667</v>
+      </c>
+      <c r="N28">
+        <v>1.232786</v>
+      </c>
+      <c r="O28">
+        <v>0.06335685524410488</v>
+      </c>
+      <c r="P28">
+        <v>0.07836981309019599</v>
+      </c>
+      <c r="Q28">
+        <v>0.893633627147</v>
+      </c>
+      <c r="R28">
+        <v>5.361801762882</v>
+      </c>
+      <c r="S28">
+        <v>0.01871174114808058</v>
+      </c>
+      <c r="T28">
+        <v>0.0199755169376132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>2.1746685</v>
+      </c>
+      <c r="H29">
+        <v>4.349337</v>
+      </c>
+      <c r="I29">
+        <v>0.2953388560083502</v>
+      </c>
+      <c r="J29">
+        <v>0.2548878981582275</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.9978816666666667</v>
+      </c>
+      <c r="N29">
+        <v>2.993645</v>
+      </c>
+      <c r="O29">
+        <v>0.1538530879789666</v>
+      </c>
+      <c r="P29">
+        <v>0.1903099151907953</v>
+      </c>
+      <c r="Q29">
+        <v>2.1700618272275</v>
+      </c>
+      <c r="R29">
+        <v>13.020370963365</v>
+      </c>
+      <c r="S29">
+        <v>0.04543879499706006</v>
+      </c>
+      <c r="T29">
+        <v>0.04850769428165234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>2.1746685</v>
+      </c>
+      <c r="H30">
+        <v>4.349337</v>
+      </c>
+      <c r="I30">
+        <v>0.2953388560083502</v>
+      </c>
+      <c r="J30">
+        <v>0.2548878981582275</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.197361</v>
+      </c>
+      <c r="N30">
+        <v>3.592083</v>
+      </c>
+      <c r="O30">
+        <v>0.1846087501446398</v>
+      </c>
+      <c r="P30">
+        <v>0.2283533989796043</v>
+      </c>
+      <c r="Q30">
+        <v>2.6038632498285</v>
+      </c>
+      <c r="R30">
+        <v>15.623179498971</v>
+      </c>
+      <c r="S30">
+        <v>0.05452213707684929</v>
+      </c>
+      <c r="T30">
+        <v>0.05820451790319847</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>2.1746685</v>
+      </c>
+      <c r="H31">
+        <v>4.349337</v>
+      </c>
+      <c r="I31">
+        <v>0.2953388560083502</v>
+      </c>
+      <c r="J31">
+        <v>0.2548878981582275</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.8056465</v>
+      </c>
+      <c r="N31">
+        <v>3.611293</v>
+      </c>
+      <c r="O31">
+        <v>0.2783940211582333</v>
+      </c>
+      <c r="P31">
+        <v>0.2295746037219218</v>
+      </c>
+      <c r="Q31">
+        <v>3.92668256568525</v>
+      </c>
+      <c r="R31">
+        <v>15.706730262741</v>
+      </c>
+      <c r="S31">
+        <v>0.08222057172843708</v>
+      </c>
+      <c r="T31">
+        <v>0.05851578821318865</v>
       </c>
     </row>
   </sheetData>
